--- a/data/input/ID_PreferenceState.xlsx
+++ b/data/input/ID_PreferenceState.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Experiments\ABMSimulation\data\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonWorkspace\ABMSimulationTool\ABMSim\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FE3AE6-03F8-4A91-B34E-6D9A3A5FBCAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076733A3-F87D-48DB-9F56-7A7F1ED7D057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4163" yWindow="638" windowWidth="10260" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simulator_scenarios" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>id</t>
   </si>
@@ -28,13 +28,10 @@
     <t>name</t>
   </si>
   <si>
-    <t>IA</t>
+    <t>active</t>
   </si>
   <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>NA</t>
+    <t>inactive</t>
   </si>
 </sst>
 </file>
@@ -355,15 +352,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="14.1328125" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -388,14 +385,6 @@
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
